--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30062518903872193</v>
+        <v>0.29986560888522895</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30168706115561644</v>
+        <v>0.29612422576686959</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00072549965486828254</v>
+        <v>0.0016092734330525964</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00041210149288184569</v>
+        <v>0.00097389817868184325</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0019439653603200921</v>
+        <v>-7.9643078048221772e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00021783765574532251</v>
+        <v>0.0006289928547901333</v>
       </c>
       <c r="H3" s="0">
-        <v>1.5966217045266629e-05</v>
+        <v>-8.7750478477576914e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-9.0415652007711447e-05</v>
+        <v>-0.00062505701347343866</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.0569184675830492e-06</v>
+        <v>-1.7282166644927432e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2857219925454324</v>
+        <v>0.28891376164649712</v>
       </c>
       <c r="C4" s="0">
-        <v>0.015289262509101662</v>
+        <v>0.047491361620995293</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.4361758776735664e-05</v>
+        <v>-0.0001186871055055923</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00017217726435856838</v>
+        <v>-4.8713133545183081e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>7.8962870382954407e-06</v>
+        <v>0.00029376691163409823</v>
       </c>
       <c r="I4" s="0">
-        <v>-6.2338906088370985e-05</v>
+        <v>-0.01133222284702186</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00056718809984801879</v>
+        <v>0.0026050192915222834</v>
       </c>
       <c r="K4" s="0">
-        <v>-4.7231518895962665e-07</v>
+        <v>5.6922866369379932e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28347477274863314</v>
+        <v>0.28220454462482214</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0058487392347683067</v>
+        <v>-0.00053342567859084684</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00047184333140946324</v>
+        <v>1.0823762887724096e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011063815201457384</v>
+        <v>0.0078054944603642082</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0002456092571262028</v>
+        <v>-0.0012495841394784648</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00010446318307570419</v>
+        <v>0.00072149540434913659</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00054818917897314667</v>
+        <v>-0.0014864486302567565</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-6.6140831184169357e-07</v>
+        <v>0.001807532457149319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28194113636151569</v>
+        <v>0.21350826639636622</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.011592896128918149</v>
+        <v>-0.020663761083615503</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.9157703058863923e-05</v>
+        <v>-0.00030979264486571435</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.2124853587635103e-05</v>
+        <v>0.00047697227734182072</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010870935287284808</v>
+        <v>0.00073923137688452329</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0014204389028618176</v>
+        <v>-0.0056685548252432228</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.6149373516238796e-07</v>
+        <v>8.8117332303072615e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29067549172294044</v>
+        <v>0.19363756232616158</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0036983043556702991</v>
+        <v>-0.024428288270201833</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0016685201698051599</v>
+        <v>-0.0026885976234198557</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011969829845099899</v>
+        <v>0.0074379875931916122</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0001168427857132206</v>
+        <v>0.0024413760648176533</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.4101729309232645e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-8.4118374682293028e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>7.1506197298232266e-05</v>
+        <v>0.00010936728551436126</v>
       </c>
     </row>
     <row r="8">
